--- a/results/DCNS_POWER_CORRECTED.xlsx
+++ b/results/DCNS_POWER_CORRECTED.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="196" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="196" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="full_data" sheetId="1" state="visible" r:id="rId2"/>
@@ -318,7 +318,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -576,11 +576,11 @@
           </c:val>
         </c:ser>
         <c:gapWidth val="100"/>
-        <c:axId val="8995085"/>
-        <c:axId val="97868532"/>
+        <c:axId val="92818589"/>
+        <c:axId val="30236357"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="8995085"/>
+        <c:axId val="92818589"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -616,14 +616,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="97868532"/>
-        <c:crossesAt val="0"/>
+        <c:crossAx val="30236357"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97868532"/>
+        <c:axId val="30236357"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -668,7 +668,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="8995085"/>
+        <c:crossAx val="92818589"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -703,7 +703,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -757,7 +757,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:size val="6"/>
+            <c:size val="5"/>
           </c:marker>
           <c:dLbls>
             <c:showLegendKey val="0"/>
@@ -840,7 +840,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:size val="6"/>
+            <c:size val="5"/>
           </c:marker>
           <c:dLbls>
             <c:showLegendKey val="0"/>
@@ -898,11 +898,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="83450255"/>
-        <c:axId val="4985491"/>
+        <c:axId val="32231150"/>
+        <c:axId val="93114286"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="83450255"/>
+        <c:axId val="32231150"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -938,14 +938,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="4985491"/>
+        <c:crossAx val="93114286"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="4985491"/>
+        <c:axId val="93114286"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -990,7 +990,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="83450255"/>
+        <c:crossAx val="32231150"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -1025,7 +1025,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -1195,11 +1195,11 @@
           </c:val>
         </c:ser>
         <c:gapWidth val="100"/>
-        <c:axId val="27015263"/>
-        <c:axId val="48338744"/>
+        <c:axId val="35742747"/>
+        <c:axId val="3641070"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="27015263"/>
+        <c:axId val="35742747"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1235,14 +1235,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="48338744"/>
+        <c:crossAx val="3641070"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="48338744"/>
+        <c:axId val="3641070"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1287,7 +1287,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="27015263"/>
+        <c:crossAx val="35742747"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -1326,16 +1326,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1414440</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>20520</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>19800</xdr:rowOff>
+      <xdr:rowOff>10800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>37440</xdr:colOff>
+      <xdr:colOff>64080</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>76680</xdr:rowOff>
+      <xdr:rowOff>67320</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1343,8 +1343,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2338920" y="1645200"/>
-        <a:ext cx="8758800" cy="3795840"/>
+        <a:off x="2365920" y="1636200"/>
+        <a:ext cx="8758440" cy="3795480"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1362,15 +1362,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>677880</xdr:colOff>
+      <xdr:colOff>704880</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>74880</xdr:rowOff>
+      <xdr:rowOff>65880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>747720</xdr:colOff>
+      <xdr:colOff>774360</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>63000</xdr:rowOff>
+      <xdr:rowOff>53640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1378,8 +1378,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3116160" y="2188080"/>
-        <a:ext cx="5759280" cy="3239280"/>
+        <a:off x="3143160" y="2179080"/>
+        <a:ext cx="5758920" cy="3238920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1397,15 +1397,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>489240</xdr:colOff>
+      <xdr:colOff>516240</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>46440</xdr:rowOff>
+      <xdr:rowOff>37440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>559080</xdr:colOff>
+      <xdr:colOff>585720</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>34560</xdr:rowOff>
+      <xdr:rowOff>25200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1413,8 +1413,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2927520" y="1834560"/>
-        <a:ext cx="5759280" cy="3239280"/>
+        <a:off x="2954520" y="1825560"/>
+        <a:ext cx="5758920" cy="3238920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1434,7 +1434,7 @@
   </sheetPr>
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -2199,7 +2199,7 @@
   </sheetPr>
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="L20" activeCellId="0" sqref="L20"/>
     </sheetView>
   </sheetViews>
